--- a/data/trans_dic/IP16A06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A06-Edad-trans_dic.xlsx
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,35</t>
+          <t>0,0; 11,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 13,88</t>
+          <t>0; 2,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,44</t>
+          <t>0; 2,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 12,03</t>
+          <t>0; 3,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 9,85</t>
+          <t>0,0; 6,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,68</t>
+          <t>0; 2,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 8,03</t>
+          <t>0,0; 6,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,88</t>
+          <t>0,0; 2,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,34</t>
+          <t>0; 1,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,64</t>
+          <t>1,0; 9,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>1,49; 13,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>0,0; 7,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>1,34; 12,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,09</t>
+          <t>1,19; 9,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>0,0; 6,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,62</t>
+          <t>1,67; 8,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>2,08; 9,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>0,57; 5,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A06-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>1,04%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>0; 4,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>0; 2,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,26</t>
+          <t>0,0; 9,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>0; 4,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>0; 2,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>0; 3,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>0; 2,11</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,31</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,86</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,17</t>
+          <t>0,0; 5,29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -772,12 +772,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,64</t>
+          <t>0,0; 7,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>0; 1,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>0; 2,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>0; 2,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,09</t>
+          <t>0,0; 5,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>0; 2,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,62</t>
+          <t>0,0; 3,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,0; 1,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>0; 1,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,35</t>
+          <t>0,0; 17,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 13,88</t>
+          <t>0; 4,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,44</t>
+          <t>0; 3,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 12,03</t>
+          <t>0,0; 14,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 9,85</t>
+          <t>0; 3,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,68</t>
+          <t>0; 2,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 8,03</t>
+          <t>1,18; 11,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,88</t>
+          <t>0; 1,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,34</t>
+          <t>0; 1,55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>3,72%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,91</t>
+          <t>0,0; 11,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,56</t>
+          <t>2,17; 20,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,73</t>
+          <t>0,0; 13,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,53</t>
+          <t>0,0; 16,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,88</t>
+          <t>1,93; 17,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 11,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,64</t>
+          <t>0,91; 8,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,01</t>
+          <t>3,12; 14,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,07</t>
+          <t>0,96; 9,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 4,83</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 3,4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 3,3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 4,54</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 3,81</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,38</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 3,71</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 2,79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 2,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>

--- a/data/trans_dic/IP16A06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A06-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,27</t>
+          <t>0,0; 10,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,29</t>
+          <t>0,0; 5,11</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,89</t>
+          <t>0,0; 5,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>0,0; 5,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,69</t>
+          <t>0,0; 3,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,96</t>
+          <t>0,0; 2,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,16</t>
+          <t>0,0; 18,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,37</t>
+          <t>0,0; 16,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 11,25</t>
+          <t>1,19; 11,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,31</t>
+          <t>0,0; 11,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 20,69</t>
+          <t>2,17; 18,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,55</t>
+          <t>0,0; 13,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,82</t>
+          <t>0,0; 13,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 17,13</t>
+          <t>1,91; 17,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,45</t>
+          <t>0,0; 9,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,88</t>
+          <t>0,91; 8,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 14,49</t>
+          <t>3,16; 14,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 9,28</t>
+          <t>0,96; 9,25</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,83</t>
+          <t>0,82; 5,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,4</t>
+          <t>0,34; 3,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,3</t>
+          <t>0,39; 3,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,54</t>
+          <t>0,48; 4,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,81</t>
+          <t>0,43; 3,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,38</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,71</t>
+          <t>0,93; 3,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,79</t>
+          <t>0,61; 2,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,11</t>
+          <t>0,36; 2,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A06-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -642,22 +642,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>2,09%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,32 +685,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 4,07</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0; 2,62</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 3,68</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0; 4,25</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>0; 2,59</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,53</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0; 4,07</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,62</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>0,0; 10,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,11</t>
+          <t>0,0; 5,87</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>1,37%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -795,42 +795,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,52</t>
+          <t>0; 2,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 5,78</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0; 2,39</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,81</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>0; 1,83</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>0; 2,7</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,86</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,08</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,39</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,72</t>
+          <t>0,0; 3,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>0,0; 2,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,22 +852,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>5,35%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -905,37 +905,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,48</t>
+          <t>0,0; 14,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>0; 3,54</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2,99</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 18,4</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 4,07</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>0; 3,14</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 16,67</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 3,54</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,99</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 11,51</t>
+          <t>1,18; 11,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -962,32 +962,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>3,13%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>8,19%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>4,49%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,55%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,52%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,07</t>
+          <t>0,0; 15,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 18,67</t>
+          <t>1,93; 18,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,84</t>
+          <t>0,0; 11,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,9</t>
+          <t>0,0; 9,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 17,05</t>
+          <t>2,11; 18,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,78</t>
+          <t>0,0; 14,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,46</t>
+          <t>0,86; 8,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 14,31</t>
+          <t>3,1; 14,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 9,25</t>
+          <t>0,95; 8,83</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2,23%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>1,39%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>1,26%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,58%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,01</t>
+          <t>0,48; 4,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,53</t>
+          <t>0,43; 3,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,37</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,65</t>
+          <t>0,82; 4,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,65</t>
+          <t>0,36; 3,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,46</t>
+          <t>0,4; 3,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,61</t>
+          <t>0,97; 3,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,73</t>
+          <t>0,7; 3,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,1</t>
+          <t>0,34; 2,07</t>
         </is>
       </c>
     </row>
